--- a/test/spreadsheets/excel_mac_2011-formatting.xlsx
+++ b/test/spreadsheets/excel_mac_2011-formatting.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-1520" windowWidth="25600" windowHeight="20720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="first sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Hey</t>
   </si>
@@ -32,12 +33,20 @@
   <si>
     <t>cool</t>
   </si>
+  <si>
+    <t>this far column</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>second sheet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,14 +79,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Adobe Garamond Pro"/>
     </font>
     <font>
@@ -87,16 +90,31 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color indexed="33"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,30 +122,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -452,38 +492,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="36">
+    <row r="1" spans="1:27" ht="36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:27">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/test/spreadsheets/excel_mac_2011-formatting.xlsx
+++ b/test/spreadsheets/excel_mac_2011-formatting.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-1520" windowWidth="25600" windowHeight="20720" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="first sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="first sheet" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hey</t>
   </si>
@@ -39,6 +40,10 @@
   </si>
   <si>
     <t>second sheet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bob</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -493,40 +498,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="36">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -558,4 +548,45 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="36">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>